--- a/Engagement Table.xlsx
+++ b/Engagement Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ArmaGithub\Lazy_BT_Weapon_Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9F8F4-7CCD-4546-8C54-65D454A49F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288C4D-B0E3-4396-838C-B2197F22DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{03B12762-1670-4C11-A77C-13DC676D3EE1}"/>
+    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{03B12762-1670-4C11-A77C-13DC676D3EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tigrus Bolter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="53">
   <si>
     <t>Bolter_Auto_AI_Long_Burst</t>
   </si>
@@ -194,9 +194,6 @@
     <t>BOLTER HEAVY (CUSTOM BURST)</t>
   </si>
   <si>
-    <t>Bolter_Single_slow</t>
-  </si>
-  <si>
     <t>BOLTER AUTO SHIELD</t>
   </si>
 </sst>
@@ -302,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -553,13 +550,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -641,15 +654,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -658,6 +662,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -995,141 +1029,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2601AAC1-3286-4F62-9F76-FEB378BB4A3A}">
-  <dimension ref="B3:U257"/>
+  <dimension ref="B2:U257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1153,12 +1436,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1166,7 +1449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -1182,60 +1465,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="41" t="s">
+      <c r="D36" s="40"/>
+      <c r="E36" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="33" t="s">
+      <c r="H36" s="33"/>
+      <c r="I36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="44" t="s">
+      <c r="J36" s="34"/>
+      <c r="K36" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="44"/>
+      <c r="M36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="45"/>
+      <c r="P36" s="48"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -1243,8 +1526,8 @@
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="37"/>
-      <c r="D37" s="40"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1571,8 @@
       <c r="U37" s="14"/>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="37"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="25">
         <v>700</v>
       </c>
@@ -1333,8 +1616,8 @@
       <c r="U38" s="14"/>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="37"/>
-      <c r="D39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="27">
         <f>(E40+E38)/2</f>
         <v>850</v>
@@ -1384,8 +1667,8 @@
       <c r="U39" s="14"/>
     </row>
     <row r="40" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="37"/>
-      <c r="D40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="28">
         <v>1000</v>
       </c>
@@ -1434,7 +1717,7 @@
       <c r="U40" s="14"/>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="37"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="3"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -1455,7 +1738,7 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="37"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1476,7 +1759,7 @@
       <c r="U42" s="14"/>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="37"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1497,7 +1780,7 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="37"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1518,7 +1801,7 @@
       <c r="U44" s="14"/>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="37"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="3">
         <v>1</v>
       </c>
@@ -1541,7 +1824,7 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -1562,7 +1845,7 @@
       <c r="U46" s="20"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1583,7 +1866,7 @@
       <c r="U47" s="20"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="37"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="3"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -1604,7 +1887,7 @@
       <c r="U48" s="20"/>
     </row>
     <row r="49" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="16">
         <v>0</v>
       </c>
@@ -1645,30 +1928,30 @@
     </row>
     <row r="51" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="41" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="33" t="s">
+      <c r="H52" s="33"/>
+      <c r="I52" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="33"/>
-      <c r="K52" s="46" t="s">
+      <c r="J52" s="34"/>
+      <c r="K52" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="46"/>
-      <c r="M52" s="34" t="s">
+      <c r="L52" s="44"/>
+      <c r="M52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="35"/>
+      <c r="N52" s="36"/>
       <c r="O52" s="21"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -1678,8 +1961,8 @@
       <c r="U52" s="13"/>
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
-      <c r="D53" s="40"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="41"/>
       <c r="E53" s="23" t="s">
         <v>3</v>
       </c>
@@ -1719,8 +2002,8 @@
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
-      <c r="D54" s="40"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="25">
         <v>700</v>
       </c>
@@ -1760,8 +2043,8 @@
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
-      <c r="D55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="27">
         <f>(E56+E54)/2</f>
         <v>850</v>
@@ -1806,8 +2089,8 @@
       <c r="U55" s="14"/>
     </row>
     <row r="56" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="37"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="28">
         <v>1000</v>
       </c>
@@ -1851,7 +2134,7 @@
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="37"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="3"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -1872,7 +2155,7 @@
       <c r="U57" s="14"/>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C58" s="37"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1893,7 +2176,7 @@
       <c r="U58" s="14"/>
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C59" s="37"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1914,7 +2197,7 @@
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C60" s="37"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1935,7 +2218,7 @@
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="37"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="3">
         <v>1</v>
       </c>
@@ -1958,7 +2241,7 @@
       <c r="U61" s="14"/>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C62" s="37"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="3"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -1979,7 +2262,7 @@
       <c r="U62" s="15"/>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="3"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2000,7 +2283,7 @@
       <c r="U63" s="15"/>
     </row>
     <row r="64" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="3"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
@@ -2021,7 +2304,7 @@
       <c r="U64" s="15"/>
     </row>
     <row r="65" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="38"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="16">
         <v>0</v>
       </c>
@@ -2062,26 +2345,26 @@
     </row>
     <row r="67" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="3:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="41" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43" t="s">
+      <c r="F68" s="43"/>
+      <c r="G68" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="43"/>
-      <c r="I68" s="33" t="s">
+      <c r="H68" s="33"/>
+      <c r="I68" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="34" t="s">
+      <c r="J68" s="34"/>
+      <c r="K68" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="35"/>
+      <c r="L68" s="36"/>
       <c r="M68" s="21"/>
       <c r="N68" s="12"/>
       <c r="O68" s="21"/>
@@ -2093,8 +2376,8 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C69" s="37"/>
-      <c r="D69" s="40"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="41"/>
       <c r="E69" s="23" t="s">
         <v>3</v>
       </c>
@@ -2130,8 +2413,8 @@
       <c r="U69" s="14"/>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C70" s="37"/>
-      <c r="D70" s="40"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="25">
         <v>1600</v>
       </c>
@@ -2167,8 +2450,8 @@
       <c r="U70" s="14"/>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C71" s="37"/>
-      <c r="D71" s="40"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="27">
         <f>(E72+E70)/2</f>
         <v>1800</v>
@@ -2208,8 +2491,8 @@
       <c r="U71" s="14"/>
     </row>
     <row r="72" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="37"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="28">
         <v>2000</v>
       </c>
@@ -2248,7 +2531,7 @@
       <c r="U72" s="14"/>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C73" s="37"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="3"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -2269,7 +2552,7 @@
       <c r="U73" s="14"/>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C74" s="37"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2290,7 +2573,7 @@
       <c r="U74" s="14"/>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C75" s="37"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -2311,7 +2594,7 @@
       <c r="U75" s="14"/>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C76" s="37"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2332,7 +2615,7 @@
       <c r="U76" s="14"/>
     </row>
     <row r="77" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C77" s="37"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="3">
         <v>1</v>
       </c>
@@ -2355,7 +2638,7 @@
       <c r="U77" s="14"/>
     </row>
     <row r="78" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C78" s="37"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="3"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -2376,7 +2659,7 @@
       <c r="U78" s="15"/>
     </row>
     <row r="79" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C79" s="37"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="3"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -2397,7 +2680,7 @@
       <c r="U79" s="15"/>
     </row>
     <row r="80" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C80" s="37"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="3"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8"/>
@@ -2418,7 +2701,7 @@
       <c r="U80" s="15"/>
     </row>
     <row r="81" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="38"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="16">
         <v>0</v>
       </c>
@@ -2457,26 +2740,26 @@
     </row>
     <row r="83" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="41" t="s">
+      <c r="D84" s="40"/>
+      <c r="E84" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H84" s="43"/>
-      <c r="I84" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="33"/>
-      <c r="K84" s="34" t="s">
+      <c r="F84" s="43"/>
+      <c r="G84" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="34"/>
+      <c r="K84" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L84" s="35"/>
+      <c r="L84" s="36"/>
       <c r="M84" s="21"/>
       <c r="N84" s="12"/>
       <c r="O84" s="21"/>
@@ -2488,8 +2771,8 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C85" s="37"/>
-      <c r="D85" s="40"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="41"/>
       <c r="E85" s="23" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2808,8 @@
       <c r="U85" s="14"/>
     </row>
     <row r="86" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C86" s="37"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="25">
         <v>600</v>
       </c>
@@ -2562,8 +2845,8 @@
       <c r="U86" s="14"/>
     </row>
     <row r="87" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C87" s="37"/>
-      <c r="D87" s="40"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="27">
         <f>(E88+E86)/2</f>
         <v>800</v>
@@ -2603,8 +2886,8 @@
       <c r="U87" s="14"/>
     </row>
     <row r="88" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="37"/>
-      <c r="D88" s="40"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="28">
         <v>1000</v>
       </c>
@@ -2643,7 +2926,7 @@
       <c r="U88" s="14"/>
     </row>
     <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="37"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="3"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -2664,7 +2947,7 @@
       <c r="U89" s="14"/>
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" s="37"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2685,7 +2968,7 @@
       <c r="U90" s="14"/>
     </row>
     <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" s="37"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2706,7 +2989,7 @@
       <c r="U91" s="14"/>
     </row>
     <row r="92" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C92" s="37"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -2727,7 +3010,7 @@
       <c r="U92" s="14"/>
     </row>
     <row r="93" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C93" s="37"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="3">
         <v>1</v>
       </c>
@@ -2750,7 +3033,7 @@
       <c r="U93" s="14"/>
     </row>
     <row r="94" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C94" s="37"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="3"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -2771,7 +3054,7 @@
       <c r="U94" s="15"/>
     </row>
     <row r="95" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C95" s="37"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="3"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -2792,7 +3075,7 @@
       <c r="U95" s="15"/>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" s="37"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="3"/>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
@@ -2813,7 +3096,7 @@
       <c r="U96" s="15"/>
     </row>
     <row r="97" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="38"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="16">
         <v>0</v>
       </c>
@@ -2852,26 +3135,26 @@
     </row>
     <row r="99" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="41" t="s">
+      <c r="D100" s="40"/>
+      <c r="E100" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="42"/>
-      <c r="G100" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H100" s="43"/>
-      <c r="I100" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="33"/>
-      <c r="K100" s="34" t="s">
+      <c r="F100" s="43"/>
+      <c r="G100" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L100" s="35"/>
+      <c r="L100" s="36"/>
       <c r="M100" s="21"/>
       <c r="N100" s="12"/>
       <c r="O100" s="21"/>
@@ -2883,8 +3166,8 @@
       <c r="U100" s="13"/>
     </row>
     <row r="101" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C101" s="37"/>
-      <c r="D101" s="40"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="23" t="s">
         <v>3</v>
       </c>
@@ -2920,8 +3203,8 @@
       <c r="U101" s="14"/>
     </row>
     <row r="102" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C102" s="37"/>
-      <c r="D102" s="40"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="41"/>
       <c r="E102" s="25">
         <v>1000</v>
       </c>
@@ -2929,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -2957,8 +3240,8 @@
       <c r="U102" s="14"/>
     </row>
     <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C103" s="37"/>
-      <c r="D103" s="40"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="27">
         <f>(E104+E102)/2</f>
         <v>1150</v>
@@ -2996,8 +3279,8 @@
       <c r="U103" s="14"/>
     </row>
     <row r="104" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="37"/>
-      <c r="D104" s="40"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="28">
         <v>1300</v>
       </c>
@@ -3036,7 +3319,7 @@
       <c r="U104" s="14"/>
     </row>
     <row r="105" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C105" s="37"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="3"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
@@ -3057,7 +3340,7 @@
       <c r="U105" s="14"/>
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C106" s="37"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -3078,7 +3361,7 @@
       <c r="U106" s="14"/>
     </row>
     <row r="107" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C107" s="37"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -3099,7 +3382,7 @@
       <c r="U107" s="14"/>
     </row>
     <row r="108" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C108" s="37"/>
+      <c r="C108" s="38"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3120,7 +3403,7 @@
       <c r="U108" s="14"/>
     </row>
     <row r="109" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C109" s="37"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="3">
         <v>1</v>
       </c>
@@ -3143,7 +3426,7 @@
       <c r="U109" s="14"/>
     </row>
     <row r="110" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C110" s="37"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="3"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -3164,7 +3447,7 @@
       <c r="U110" s="15"/>
     </row>
     <row r="111" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C111" s="37"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="3"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -3185,7 +3468,7 @@
       <c r="U111" s="15"/>
     </row>
     <row r="112" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C112" s="37"/>
+      <c r="C112" s="38"/>
       <c r="D112" s="3"/>
       <c r="E112" s="7"/>
       <c r="F112" s="8"/>
@@ -3206,7 +3489,7 @@
       <c r="U112" s="15"/>
     </row>
     <row r="113" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="38"/>
+      <c r="C113" s="39"/>
       <c r="D113" s="16">
         <v>0</v>
       </c>
@@ -3245,18 +3528,18 @@
     </row>
     <row r="115" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="47" t="s">
+      <c r="D116" s="40"/>
+      <c r="E116" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="48"/>
-      <c r="G116" s="34" t="s">
+      <c r="F116" s="46"/>
+      <c r="G116" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="35"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="21"/>
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
@@ -3272,8 +3555,8 @@
       <c r="U116" s="13"/>
     </row>
     <row r="117" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C117" s="37"/>
-      <c r="D117" s="40"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="23" t="s">
         <v>3</v>
       </c>
@@ -3301,10 +3584,10 @@
       <c r="U117" s="14"/>
     </row>
     <row r="118" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C118" s="37"/>
-      <c r="D118" s="40"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="41"/>
       <c r="E118" s="25">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -3330,18 +3613,18 @@
       <c r="U118" s="14"/>
     </row>
     <row r="119" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C119" s="37"/>
-      <c r="D119" s="40"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="41"/>
       <c r="E119" s="27">
         <f>(E120+E118)/2</f>
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F119" s="2">
         <v>0.5</v>
       </c>
       <c r="G119" s="6">
         <f>E118</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H119" s="26">
         <v>1</v>
@@ -3361,17 +3644,17 @@
       <c r="U119" s="14"/>
     </row>
     <row r="120" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="37"/>
-      <c r="D120" s="40"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="41"/>
       <c r="E120" s="28">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F120" s="29">
         <v>1</v>
       </c>
       <c r="G120" s="30">
         <f>E120</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H120" s="32">
         <v>0</v>
@@ -3391,7 +3674,7 @@
       <c r="U120" s="14"/>
     </row>
     <row r="121" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C121" s="37"/>
+      <c r="C121" s="38"/>
       <c r="D121" s="3"/>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
@@ -3412,7 +3695,7 @@
       <c r="U121" s="14"/>
     </row>
     <row r="122" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C122" s="37"/>
+      <c r="C122" s="38"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -3433,7 +3716,7 @@
       <c r="U122" s="14"/>
     </row>
     <row r="123" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C123" s="37"/>
+      <c r="C123" s="38"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3454,7 +3737,7 @@
       <c r="U123" s="14"/>
     </row>
     <row r="124" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C124" s="37"/>
+      <c r="C124" s="38"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -3475,7 +3758,7 @@
       <c r="U124" s="14"/>
     </row>
     <row r="125" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C125" s="37"/>
+      <c r="C125" s="38"/>
       <c r="D125" s="3">
         <v>1</v>
       </c>
@@ -3498,7 +3781,7 @@
       <c r="U125" s="14"/>
     </row>
     <row r="126" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C126" s="37"/>
+      <c r="C126" s="38"/>
       <c r="D126" s="3"/>
       <c r="E126" s="7"/>
       <c r="F126" s="11"/>
@@ -3519,7 +3802,7 @@
       <c r="U126" s="15"/>
     </row>
     <row r="127" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C127" s="37"/>
+      <c r="C127" s="38"/>
       <c r="D127" s="3"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -3540,7 +3823,7 @@
       <c r="U127" s="15"/>
     </row>
     <row r="128" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C128" s="37"/>
+      <c r="C128" s="38"/>
       <c r="D128" s="3"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -3561,19 +3844,17 @@
       <c r="U128" s="15"/>
     </row>
     <row r="129" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="38"/>
+      <c r="C129" s="39"/>
       <c r="D129" s="16">
         <v>0</v>
       </c>
       <c r="E129" s="16">
-        <f>E120</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
       <c r="H129" s="16">
-        <f>E118</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
@@ -3600,18 +3881,18 @@
     </row>
     <row r="131" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="47" t="s">
+      <c r="D132" s="40"/>
+      <c r="E132" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="48"/>
-      <c r="G132" s="34" t="s">
+      <c r="F132" s="46"/>
+      <c r="G132" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H132" s="35"/>
+      <c r="H132" s="36"/>
       <c r="I132" s="21"/>
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
@@ -3627,8 +3908,8 @@
       <c r="U132" s="13"/>
     </row>
     <row r="133" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C133" s="37"/>
-      <c r="D133" s="40"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="41"/>
       <c r="E133" s="23" t="s">
         <v>3</v>
       </c>
@@ -3656,8 +3937,8 @@
       <c r="U133" s="14"/>
     </row>
     <row r="134" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C134" s="37"/>
-      <c r="D134" s="40"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="41"/>
       <c r="E134" s="25">
         <v>150</v>
       </c>
@@ -3685,8 +3966,8 @@
       <c r="U134" s="14"/>
     </row>
     <row r="135" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C135" s="37"/>
-      <c r="D135" s="40"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="41"/>
       <c r="E135" s="27">
         <f>(E136+E134)/2</f>
         <v>225</v>
@@ -3716,8 +3997,8 @@
       <c r="U135" s="14"/>
     </row>
     <row r="136" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="37"/>
-      <c r="D136" s="40"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="28">
         <v>300</v>
       </c>
@@ -3746,7 +4027,7 @@
       <c r="U136" s="14"/>
     </row>
     <row r="137" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C137" s="37"/>
+      <c r="C137" s="38"/>
       <c r="D137" s="3"/>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
@@ -3767,7 +4048,7 @@
       <c r="U137" s="14"/>
     </row>
     <row r="138" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C138" s="37"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -3788,7 +4069,7 @@
       <c r="U138" s="14"/>
     </row>
     <row r="139" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C139" s="37"/>
+      <c r="C139" s="38"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -3809,7 +4090,7 @@
       <c r="U139" s="14"/>
     </row>
     <row r="140" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C140" s="37"/>
+      <c r="C140" s="38"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -3830,7 +4111,7 @@
       <c r="U140" s="14"/>
     </row>
     <row r="141" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C141" s="37"/>
+      <c r="C141" s="38"/>
       <c r="D141" s="3">
         <v>1</v>
       </c>
@@ -3853,7 +4134,7 @@
       <c r="U141" s="14"/>
     </row>
     <row r="142" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C142" s="37"/>
+      <c r="C142" s="38"/>
       <c r="D142" s="3"/>
       <c r="E142" s="7"/>
       <c r="F142" s="11"/>
@@ -3874,7 +4155,7 @@
       <c r="U142" s="15"/>
     </row>
     <row r="143" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C143" s="37"/>
+      <c r="C143" s="38"/>
       <c r="D143" s="3"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -3895,7 +4176,7 @@
       <c r="U143" s="15"/>
     </row>
     <row r="144" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C144" s="37"/>
+      <c r="C144" s="38"/>
       <c r="D144" s="3"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -3916,7 +4197,7 @@
       <c r="U144" s="15"/>
     </row>
     <row r="145" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="38"/>
+      <c r="C145" s="39"/>
       <c r="D145" s="16">
         <v>0</v>
       </c>
@@ -3955,16 +4236,18 @@
     </row>
     <row r="147" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="34" t="s">
+      <c r="D148" s="40"/>
+      <c r="E148" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="46"/>
+      <c r="G148" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F148" s="35"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="12"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="21"/>
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
@@ -3980,16 +4263,20 @@
       <c r="U148" s="13"/>
     </row>
     <row r="149" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C149" s="37"/>
-      <c r="D149" s="40"/>
-      <c r="E149" s="4" t="s">
+      <c r="C149" s="38"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F149" s="24" t="s">
+      <c r="F149" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="3"/>
+      <c r="G149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="I149" s="22"/>
       <c r="J149" s="3"/>
       <c r="K149" s="22"/>
@@ -4005,16 +4292,20 @@
       <c r="U149" s="14"/>
     </row>
     <row r="150" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C150" s="37"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="5">
-        <v>0</v>
-      </c>
-      <c r="F150" s="26">
-        <v>1</v>
-      </c>
-      <c r="G150" s="22"/>
-      <c r="H150" s="3"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="25">
+        <v>100</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0</v>
+      </c>
+      <c r="H150" s="26">
+        <v>1</v>
+      </c>
       <c r="I150" s="22"/>
       <c r="J150" s="3"/>
       <c r="K150" s="22"/>
@@ -4030,16 +4321,22 @@
       <c r="U150" s="14"/>
     </row>
     <row r="151" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C151" s="37"/>
-      <c r="D151" s="40"/>
-      <c r="E151" s="6">
-        <v>50</v>
-      </c>
-      <c r="F151" s="26">
-        <v>1</v>
-      </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="3"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="27">
+        <f>(E152+E150)/2</f>
+        <v>125</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G151" s="6">
+        <f>E150</f>
+        <v>100</v>
+      </c>
+      <c r="H151" s="26">
+        <v>1</v>
+      </c>
       <c r="I151" s="22"/>
       <c r="J151" s="3"/>
       <c r="K151" s="22"/>
@@ -4055,16 +4352,20 @@
       <c r="U151" s="14"/>
     </row>
     <row r="152" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="37"/>
-      <c r="D152" s="40"/>
-      <c r="E152" s="30">
-        <v>100</v>
-      </c>
-      <c r="F152" s="32">
-        <v>1</v>
-      </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="3"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="28">
+        <v>150</v>
+      </c>
+      <c r="F152" s="29">
+        <v>1</v>
+      </c>
+      <c r="G152" s="30">
+        <v>150</v>
+      </c>
+      <c r="H152" s="32">
+        <v>0</v>
+      </c>
       <c r="I152" s="22"/>
       <c r="J152" s="3"/>
       <c r="K152" s="22"/>
@@ -4080,7 +4381,7 @@
       <c r="U152" s="14"/>
     </row>
     <row r="153" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C153" s="37"/>
+      <c r="C153" s="38"/>
       <c r="D153" s="3"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
@@ -4101,7 +4402,7 @@
       <c r="U153" s="14"/>
     </row>
     <row r="154" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C154" s="37"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -4122,7 +4423,7 @@
       <c r="U154" s="14"/>
     </row>
     <row r="155" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C155" s="37"/>
+      <c r="C155" s="38"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -4143,7 +4444,7 @@
       <c r="U155" s="14"/>
     </row>
     <row r="156" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C156" s="37"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -4164,7 +4465,7 @@
       <c r="U156" s="14"/>
     </row>
     <row r="157" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C157" s="37"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="3">
         <v>1</v>
       </c>
@@ -4187,9 +4488,9 @@
       <c r="U157" s="14"/>
     </row>
     <row r="158" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C158" s="37"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -4208,10 +4509,10 @@
       <c r="U158" s="15"/>
     </row>
     <row r="159" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C159" s="37"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
@@ -4229,11 +4530,11 @@
       <c r="U159" s="15"/>
     </row>
     <row r="160" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C160" s="37"/>
+      <c r="C160" s="38"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
@@ -4250,18 +4551,18 @@
       <c r="U160" s="15"/>
     </row>
     <row r="161" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="38"/>
+      <c r="C161" s="39"/>
       <c r="D161" s="16">
         <v>0</v>
       </c>
       <c r="E161" s="16">
         <f>E152</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
       <c r="H161" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I161" s="16"/>
       <c r="J161" s="16"/>
@@ -4287,17 +4588,19 @@
       <c r="U161" s="17"/>
     </row>
     <row r="163" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C164" s="36" t="s">
+    <row r="164" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="34" t="s">
+      <c r="D164" s="40"/>
+      <c r="E164" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="46"/>
+      <c r="G164" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F164" s="35"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="12"/>
+      <c r="H164" s="36"/>
       <c r="I164" s="21"/>
       <c r="J164" s="12"/>
       <c r="K164" s="21"/>
@@ -4313,16 +4616,20 @@
       <c r="U164" s="13"/>
     </row>
     <row r="165" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C165" s="37"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="4" t="s">
+      <c r="C165" s="38"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="24" t="s">
+      <c r="F165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G165" s="22"/>
-      <c r="H165" s="3"/>
+      <c r="G165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="I165" s="22"/>
       <c r="J165" s="3"/>
       <c r="K165" s="22"/>
@@ -4338,16 +4645,20 @@
       <c r="U165" s="14"/>
     </row>
     <row r="166" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C166" s="37"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="5">
-        <v>0</v>
-      </c>
-      <c r="F166" s="26">
-        <v>1</v>
-      </c>
-      <c r="G166" s="22"/>
-      <c r="H166" s="3"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="25">
+        <v>700</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0</v>
+      </c>
+      <c r="H166" s="26">
+        <v>1</v>
+      </c>
       <c r="I166" s="22"/>
       <c r="J166" s="3"/>
       <c r="K166" s="22"/>
@@ -4363,16 +4674,22 @@
       <c r="U166" s="14"/>
     </row>
     <row r="167" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C167" s="37"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="6">
-        <v>500</v>
-      </c>
-      <c r="F167" s="26">
-        <v>1</v>
-      </c>
-      <c r="G167" s="22"/>
-      <c r="H167" s="3"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="27">
+        <f>(E168+E166)/2</f>
+        <v>850</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="6">
+        <f>E166</f>
+        <v>700</v>
+      </c>
+      <c r="H167" s="26">
+        <v>1</v>
+      </c>
       <c r="I167" s="22"/>
       <c r="J167" s="3"/>
       <c r="K167" s="22"/>
@@ -4388,16 +4705,21 @@
       <c r="U167" s="14"/>
     </row>
     <row r="168" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="37"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="30">
+      <c r="C168" s="38"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="28">
         <v>1000</v>
       </c>
-      <c r="F168" s="32">
-        <v>1</v>
-      </c>
-      <c r="G168" s="22"/>
-      <c r="H168" s="3"/>
+      <c r="F168" s="29">
+        <v>1</v>
+      </c>
+      <c r="G168" s="30">
+        <f>E168</f>
+        <v>1000</v>
+      </c>
+      <c r="H168" s="32">
+        <v>0</v>
+      </c>
       <c r="I168" s="22"/>
       <c r="J168" s="3"/>
       <c r="K168" s="22"/>
@@ -4413,7 +4735,7 @@
       <c r="U168" s="14"/>
     </row>
     <row r="169" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C169" s="37"/>
+      <c r="C169" s="38"/>
       <c r="D169" s="3"/>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
@@ -4434,7 +4756,7 @@
       <c r="U169" s="14"/>
     </row>
     <row r="170" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C170" s="37"/>
+      <c r="C170" s="38"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -4455,7 +4777,7 @@
       <c r="U170" s="14"/>
     </row>
     <row r="171" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C171" s="37"/>
+      <c r="C171" s="38"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -4476,7 +4798,7 @@
       <c r="U171" s="14"/>
     </row>
     <row r="172" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C172" s="37"/>
+      <c r="C172" s="38"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -4497,7 +4819,7 @@
       <c r="U172" s="14"/>
     </row>
     <row r="173" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C173" s="37"/>
+      <c r="C173" s="38"/>
       <c r="D173" s="3">
         <v>1</v>
       </c>
@@ -4520,9 +4842,9 @@
       <c r="U173" s="14"/>
     </row>
     <row r="174" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C174" s="37"/>
+      <c r="C174" s="38"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="11"/>
+      <c r="E174" s="7"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -4541,10 +4863,10 @@
       <c r="U174" s="15"/>
     </row>
     <row r="175" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C175" s="37"/>
+      <c r="C175" s="38"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -4562,11 +4884,11 @@
       <c r="U175" s="15"/>
     </row>
     <row r="176" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C176" s="37"/>
+      <c r="C176" s="38"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
       <c r="J176" s="11"/>
@@ -4583,7 +4905,7 @@
       <c r="U176" s="15"/>
     </row>
     <row r="177" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="38"/>
+      <c r="C177" s="39"/>
       <c r="D177" s="16">
         <v>0</v>
       </c>
@@ -4594,7 +4916,7 @@
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
       <c r="H177" s="16">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="I177" s="16"/>
       <c r="J177" s="16"/>
@@ -4620,33 +4942,35 @@
       <c r="U177" s="17"/>
     </row>
     <row r="179" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="180" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C180" s="36" t="s">
+    <row r="180" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D180" s="39"/>
-      <c r="E180" s="41" t="s">
+      <c r="D180" s="40"/>
+      <c r="E180" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="42"/>
-      <c r="G180" s="43" t="s">
+      <c r="F180" s="46"/>
+      <c r="G180" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H180" s="43"/>
-      <c r="I180" s="33" t="s">
+      <c r="H180" s="56"/>
+      <c r="I180" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J180" s="33"/>
-      <c r="K180" s="46" t="s">
+      <c r="J180" s="54"/>
+      <c r="K180" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L180" s="46"/>
-      <c r="M180" s="34" t="s">
+      <c r="L180" s="52"/>
+      <c r="M180" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N180" s="35"/>
-      <c r="O180" s="21"/>
-      <c r="P180" s="12"/>
+      <c r="N180" s="50"/>
+      <c r="O180" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P180" s="48"/>
       <c r="Q180" s="12"/>
       <c r="R180" s="12"/>
       <c r="S180" s="12"/>
@@ -4654,8 +4978,8 @@
       <c r="U180" s="13"/>
     </row>
     <row r="181" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C181" s="37"/>
-      <c r="D181" s="40"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="41"/>
       <c r="E181" s="23" t="s">
         <v>3</v>
       </c>
@@ -4686,8 +5010,12 @@
       <c r="N181" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O181" s="22"/>
-      <c r="P181" s="3"/>
+      <c r="O181" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P181" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
@@ -4695,8 +5023,8 @@
       <c r="U181" s="14"/>
     </row>
     <row r="182" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C182" s="37"/>
-      <c r="D182" s="40"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="41"/>
       <c r="E182" s="25">
         <v>500</v>
       </c>
@@ -4721,14 +5049,18 @@
       <c r="L182" s="1">
         <v>0</v>
       </c>
-      <c r="M182" s="5">
-        <v>0</v>
+      <c r="M182" s="1">
+        <v>50</v>
       </c>
       <c r="N182" s="26">
-        <v>1</v>
-      </c>
-      <c r="O182" s="22"/>
-      <c r="P182" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0</v>
+      </c>
+      <c r="P182" s="26">
+        <v>1</v>
+      </c>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
@@ -4736,8 +5068,8 @@
       <c r="U182" s="14"/>
     </row>
     <row r="183" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C183" s="37"/>
-      <c r="D183" s="40"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="41"/>
       <c r="E183" s="27">
         <f>(E184+E182)/2</f>
         <v>750</v>
@@ -4773,8 +5105,13 @@
       <c r="N183" s="26">
         <v>1</v>
       </c>
-      <c r="O183" s="22"/>
-      <c r="P183" s="3"/>
+      <c r="O183" s="6">
+        <f>M182</f>
+        <v>50</v>
+      </c>
+      <c r="P183" s="26">
+        <v>1</v>
+      </c>
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
@@ -4782,8 +5119,8 @@
       <c r="U183" s="14"/>
     </row>
     <row r="184" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="37"/>
-      <c r="D184" s="40"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="41"/>
       <c r="E184" s="28">
         <v>1000</v>
       </c>
@@ -4818,8 +5155,13 @@
       <c r="N184" s="32">
         <v>0</v>
       </c>
-      <c r="O184" s="22"/>
-      <c r="P184" s="3"/>
+      <c r="O184" s="30">
+        <f>M183</f>
+        <v>75</v>
+      </c>
+      <c r="P184" s="32">
+        <v>0</v>
+      </c>
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
@@ -4827,7 +5169,7 @@
       <c r="U184" s="14"/>
     </row>
     <row r="185" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C185" s="37"/>
+      <c r="C185" s="38"/>
       <c r="D185" s="3"/>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
@@ -4848,7 +5190,7 @@
       <c r="U185" s="14"/>
     </row>
     <row r="186" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C186" s="37"/>
+      <c r="C186" s="38"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -4869,7 +5211,7 @@
       <c r="U186" s="14"/>
     </row>
     <row r="187" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C187" s="37"/>
+      <c r="C187" s="38"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -4890,7 +5232,7 @@
       <c r="U187" s="14"/>
     </row>
     <row r="188" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C188" s="37"/>
+      <c r="C188" s="38"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -4911,7 +5253,7 @@
       <c r="U188" s="14"/>
     </row>
     <row r="189" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C189" s="37"/>
+      <c r="C189" s="38"/>
       <c r="D189" s="3">
         <v>1</v>
       </c>
@@ -4934,7 +5276,7 @@
       <c r="U189" s="14"/>
     </row>
     <row r="190" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C190" s="37"/>
+      <c r="C190" s="38"/>
       <c r="D190" s="3"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -4951,11 +5293,11 @@
       <c r="Q190" s="11"/>
       <c r="R190" s="11"/>
       <c r="S190" s="11"/>
-      <c r="T190" s="11"/>
-      <c r="U190" s="15"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="20"/>
     </row>
     <row r="191" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C191" s="37"/>
+      <c r="C191" s="38"/>
       <c r="D191" s="3"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -4971,12 +5313,12 @@
       <c r="P191" s="11"/>
       <c r="Q191" s="11"/>
       <c r="R191" s="11"/>
-      <c r="S191" s="11"/>
-      <c r="T191" s="11"/>
-      <c r="U191" s="15"/>
+      <c r="S191" s="19"/>
+      <c r="T191" s="19"/>
+      <c r="U191" s="20"/>
     </row>
     <row r="192" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C192" s="37"/>
+      <c r="C192" s="38"/>
       <c r="D192" s="3"/>
       <c r="E192" s="7"/>
       <c r="F192" s="8"/>
@@ -4991,13 +5333,13 @@
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
       <c r="Q192" s="11"/>
-      <c r="R192" s="11"/>
-      <c r="S192" s="11"/>
-      <c r="T192" s="11"/>
-      <c r="U192" s="15"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="19"/>
+      <c r="T192" s="19"/>
+      <c r="U192" s="20"/>
     </row>
     <row r="193" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="38"/>
+      <c r="C193" s="39"/>
       <c r="D193" s="16">
         <v>0</v>
       </c>
@@ -5038,18 +5380,18 @@
     </row>
     <row r="195" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="196" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C196" s="36" t="s">
+      <c r="C196" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="47" t="s">
+      <c r="D196" s="40"/>
+      <c r="E196" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F196" s="48"/>
-      <c r="G196" s="34" t="s">
+      <c r="F196" s="46"/>
+      <c r="G196" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H196" s="35"/>
+      <c r="H196" s="36"/>
       <c r="I196" s="21"/>
       <c r="J196" s="12"/>
       <c r="K196" s="21"/>
@@ -5065,8 +5407,8 @@
       <c r="U196" s="13"/>
     </row>
     <row r="197" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C197" s="37"/>
-      <c r="D197" s="40"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="41"/>
       <c r="E197" s="23" t="s">
         <v>3</v>
       </c>
@@ -5094,8 +5436,8 @@
       <c r="U197" s="14"/>
     </row>
     <row r="198" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C198" s="37"/>
-      <c r="D198" s="40"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="41"/>
       <c r="E198" s="25">
         <v>1000</v>
       </c>
@@ -5123,8 +5465,8 @@
       <c r="U198" s="14"/>
     </row>
     <row r="199" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C199" s="37"/>
-      <c r="D199" s="40"/>
+      <c r="C199" s="38"/>
+      <c r="D199" s="41"/>
       <c r="E199" s="27">
         <f>(E200+E198)/2</f>
         <v>1250</v>
@@ -5154,8 +5496,8 @@
       <c r="U199" s="14"/>
     </row>
     <row r="200" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="37"/>
-      <c r="D200" s="40"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="41"/>
       <c r="E200" s="28">
         <v>1500</v>
       </c>
@@ -5184,7 +5526,7 @@
       <c r="U200" s="14"/>
     </row>
     <row r="201" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C201" s="37"/>
+      <c r="C201" s="38"/>
       <c r="D201" s="3"/>
       <c r="E201" s="18"/>
       <c r="F201" s="18"/>
@@ -5205,7 +5547,7 @@
       <c r="U201" s="14"/>
     </row>
     <row r="202" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C202" s="37"/>
+      <c r="C202" s="38"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -5226,7 +5568,7 @@
       <c r="U202" s="14"/>
     </row>
     <row r="203" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C203" s="37"/>
+      <c r="C203" s="38"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -5247,7 +5589,7 @@
       <c r="U203" s="14"/>
     </row>
     <row r="204" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C204" s="37"/>
+      <c r="C204" s="38"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -5268,7 +5610,7 @@
       <c r="U204" s="14"/>
     </row>
     <row r="205" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C205" s="37"/>
+      <c r="C205" s="38"/>
       <c r="D205" s="3">
         <v>1</v>
       </c>
@@ -5291,7 +5633,7 @@
       <c r="U205" s="14"/>
     </row>
     <row r="206" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C206" s="37"/>
+      <c r="C206" s="38"/>
       <c r="D206" s="3"/>
       <c r="E206" s="7"/>
       <c r="F206" s="11"/>
@@ -5312,7 +5654,7 @@
       <c r="U206" s="15"/>
     </row>
     <row r="207" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C207" s="37"/>
+      <c r="C207" s="38"/>
       <c r="D207" s="3"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -5333,7 +5675,7 @@
       <c r="U207" s="15"/>
     </row>
     <row r="208" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C208" s="37"/>
+      <c r="C208" s="38"/>
       <c r="D208" s="3"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -5354,7 +5696,7 @@
       <c r="U208" s="15"/>
     </row>
     <row r="209" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="38"/>
+      <c r="C209" s="39"/>
       <c r="D209" s="16">
         <v>0</v>
       </c>
@@ -5392,17 +5734,19 @@
       <c r="U209" s="17"/>
     </row>
     <row r="211" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C212" s="36" t="s">
+    <row r="212" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F212" s="35"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="12"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="46"/>
+      <c r="G212" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="36"/>
       <c r="I212" s="21"/>
       <c r="J212" s="12"/>
       <c r="K212" s="21"/>
@@ -5418,16 +5762,20 @@
       <c r="U212" s="13"/>
     </row>
     <row r="213" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C213" s="37"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="4" t="s">
+      <c r="C213" s="38"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F213" s="24" t="s">
+      <c r="F213" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G213" s="22"/>
-      <c r="H213" s="3"/>
+      <c r="G213" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="I213" s="22"/>
       <c r="J213" s="3"/>
       <c r="K213" s="22"/>
@@ -5443,16 +5791,20 @@
       <c r="U213" s="14"/>
     </row>
     <row r="214" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C214" s="37"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="5">
-        <v>0</v>
-      </c>
-      <c r="F214" s="26">
-        <v>1</v>
-      </c>
-      <c r="G214" s="22"/>
-      <c r="H214" s="3"/>
+      <c r="C214" s="38"/>
+      <c r="D214" s="41"/>
+      <c r="E214" s="25">
+        <v>1000</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5">
+        <v>0</v>
+      </c>
+      <c r="H214" s="26">
+        <v>1</v>
+      </c>
       <c r="I214" s="22"/>
       <c r="J214" s="3"/>
       <c r="K214" s="22"/>
@@ -5468,16 +5820,22 @@
       <c r="U214" s="14"/>
     </row>
     <row r="215" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C215" s="37"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="6">
-        <v>500</v>
-      </c>
-      <c r="F215" s="26">
-        <v>1</v>
-      </c>
-      <c r="G215" s="22"/>
-      <c r="H215" s="3"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="27">
+        <f>(E216+E214)/2</f>
+        <v>1150</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G215" s="6">
+        <f>E214</f>
+        <v>1000</v>
+      </c>
+      <c r="H215" s="26">
+        <v>1</v>
+      </c>
       <c r="I215" s="22"/>
       <c r="J215" s="3"/>
       <c r="K215" s="22"/>
@@ -5493,16 +5851,21 @@
       <c r="U215" s="14"/>
     </row>
     <row r="216" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="37"/>
-      <c r="D216" s="40"/>
-      <c r="E216" s="30">
+      <c r="C216" s="38"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="28">
         <v>1300</v>
       </c>
-      <c r="F216" s="32">
-        <v>1</v>
-      </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="3"/>
+      <c r="F216" s="29">
+        <v>1</v>
+      </c>
+      <c r="G216" s="30">
+        <f>E216</f>
+        <v>1300</v>
+      </c>
+      <c r="H216" s="32">
+        <v>0</v>
+      </c>
       <c r="I216" s="22"/>
       <c r="J216" s="3"/>
       <c r="K216" s="22"/>
@@ -5518,7 +5881,7 @@
       <c r="U216" s="14"/>
     </row>
     <row r="217" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C217" s="37"/>
+      <c r="C217" s="38"/>
       <c r="D217" s="3"/>
       <c r="E217" s="18"/>
       <c r="F217" s="18"/>
@@ -5539,7 +5902,7 @@
       <c r="U217" s="14"/>
     </row>
     <row r="218" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C218" s="37"/>
+      <c r="C218" s="38"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -5560,7 +5923,7 @@
       <c r="U218" s="14"/>
     </row>
     <row r="219" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C219" s="37"/>
+      <c r="C219" s="38"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -5581,7 +5944,7 @@
       <c r="U219" s="14"/>
     </row>
     <row r="220" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C220" s="37"/>
+      <c r="C220" s="38"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -5602,7 +5965,7 @@
       <c r="U220" s="14"/>
     </row>
     <row r="221" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C221" s="37"/>
+      <c r="C221" s="38"/>
       <c r="D221" s="3">
         <v>1</v>
       </c>
@@ -5625,9 +5988,9 @@
       <c r="U221" s="14"/>
     </row>
     <row r="222" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C222" s="37"/>
+      <c r="C222" s="38"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="11"/>
+      <c r="E222" s="7"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
@@ -5646,10 +6009,10 @@
       <c r="U222" s="15"/>
     </row>
     <row r="223" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C223" s="37"/>
+      <c r="C223" s="38"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
       <c r="I223" s="11"/>
@@ -5667,11 +6030,11 @@
       <c r="U223" s="15"/>
     </row>
     <row r="224" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C224" s="37"/>
+      <c r="C224" s="38"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
       <c r="H224" s="11"/>
       <c r="I224" s="11"/>
       <c r="J224" s="11"/>
@@ -5688,7 +6051,7 @@
       <c r="U224" s="15"/>
     </row>
     <row r="225" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="38"/>
+      <c r="C225" s="39"/>
       <c r="D225" s="16">
         <v>0</v>
       </c>
@@ -5726,26 +6089,26 @@
     </row>
     <row r="227" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="228" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C228" s="36" t="s">
+      <c r="C228" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D228" s="39"/>
-      <c r="E228" s="41" t="s">
+      <c r="D228" s="40"/>
+      <c r="E228" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F228" s="42"/>
-      <c r="G228" s="43" t="s">
+      <c r="F228" s="43"/>
+      <c r="G228" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H228" s="43"/>
-      <c r="I228" s="33" t="s">
+      <c r="H228" s="33"/>
+      <c r="I228" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J228" s="33"/>
-      <c r="K228" s="34" t="s">
+      <c r="J228" s="34"/>
+      <c r="K228" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L228" s="35"/>
+      <c r="L228" s="36"/>
       <c r="M228" s="21"/>
       <c r="N228" s="12"/>
       <c r="O228" s="21"/>
@@ -5757,8 +6120,8 @@
       <c r="U228" s="13"/>
     </row>
     <row r="229" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C229" s="37"/>
-      <c r="D229" s="40"/>
+      <c r="C229" s="38"/>
+      <c r="D229" s="41"/>
       <c r="E229" s="23" t="s">
         <v>3</v>
       </c>
@@ -5794,8 +6157,8 @@
       <c r="U229" s="14"/>
     </row>
     <row r="230" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C230" s="37"/>
-      <c r="D230" s="40"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="41"/>
       <c r="E230" s="25">
         <v>1600</v>
       </c>
@@ -5831,8 +6194,8 @@
       <c r="U230" s="14"/>
     </row>
     <row r="231" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C231" s="37"/>
-      <c r="D231" s="40"/>
+      <c r="C231" s="38"/>
+      <c r="D231" s="41"/>
       <c r="E231" s="27">
         <f>(E232+E230)/2</f>
         <v>1800</v>
@@ -5872,8 +6235,8 @@
       <c r="U231" s="14"/>
     </row>
     <row r="232" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="37"/>
-      <c r="D232" s="40"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="41"/>
       <c r="E232" s="28">
         <v>2000</v>
       </c>
@@ -5912,7 +6275,7 @@
       <c r="U232" s="14"/>
     </row>
     <row r="233" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C233" s="37"/>
+      <c r="C233" s="38"/>
       <c r="D233" s="3"/>
       <c r="E233" s="18"/>
       <c r="F233" s="18"/>
@@ -5933,7 +6296,7 @@
       <c r="U233" s="14"/>
     </row>
     <row r="234" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C234" s="37"/>
+      <c r="C234" s="38"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -5954,7 +6317,7 @@
       <c r="U234" s="14"/>
     </row>
     <row r="235" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C235" s="37"/>
+      <c r="C235" s="38"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -5975,7 +6338,7 @@
       <c r="U235" s="14"/>
     </row>
     <row r="236" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C236" s="37"/>
+      <c r="C236" s="38"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -5996,7 +6359,7 @@
       <c r="U236" s="14"/>
     </row>
     <row r="237" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C237" s="37"/>
+      <c r="C237" s="38"/>
       <c r="D237" s="3">
         <v>1</v>
       </c>
@@ -6019,7 +6382,7 @@
       <c r="U237" s="14"/>
     </row>
     <row r="238" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C238" s="37"/>
+      <c r="C238" s="38"/>
       <c r="D238" s="3"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
@@ -6040,7 +6403,7 @@
       <c r="U238" s="15"/>
     </row>
     <row r="239" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C239" s="37"/>
+      <c r="C239" s="38"/>
       <c r="D239" s="3"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
@@ -6061,7 +6424,7 @@
       <c r="U239" s="15"/>
     </row>
     <row r="240" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C240" s="37"/>
+      <c r="C240" s="38"/>
       <c r="D240" s="3"/>
       <c r="E240" s="7"/>
       <c r="F240" s="8"/>
@@ -6082,7 +6445,7 @@
       <c r="U240" s="15"/>
     </row>
     <row r="241" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="38"/>
+      <c r="C241" s="39"/>
       <c r="D241" s="16">
         <v>0</v>
       </c>
@@ -6121,26 +6484,26 @@
     </row>
     <row r="243" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="244" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C244" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D244" s="39"/>
-      <c r="E244" s="41" t="s">
+      <c r="C244" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D244" s="40"/>
+      <c r="E244" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F244" s="42"/>
-      <c r="G244" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H244" s="43"/>
-      <c r="I244" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J244" s="33"/>
-      <c r="K244" s="34" t="s">
+      <c r="F244" s="43"/>
+      <c r="G244" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H244" s="33"/>
+      <c r="I244" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J244" s="34"/>
+      <c r="K244" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L244" s="35"/>
+      <c r="L244" s="36"/>
       <c r="M244" s="21"/>
       <c r="N244" s="12"/>
       <c r="O244" s="21"/>
@@ -6152,8 +6515,8 @@
       <c r="U244" s="13"/>
     </row>
     <row r="245" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C245" s="37"/>
-      <c r="D245" s="40"/>
+      <c r="C245" s="38"/>
+      <c r="D245" s="41"/>
       <c r="E245" s="23" t="s">
         <v>3</v>
       </c>
@@ -6189,8 +6552,8 @@
       <c r="U245" s="14"/>
     </row>
     <row r="246" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C246" s="37"/>
-      <c r="D246" s="40"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="41"/>
       <c r="E246" s="25">
         <v>400</v>
       </c>
@@ -6226,8 +6589,8 @@
       <c r="U246" s="14"/>
     </row>
     <row r="247" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C247" s="37"/>
-      <c r="D247" s="40"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="41"/>
       <c r="E247" s="27">
         <f>(E248+E246)/2</f>
         <v>600</v>
@@ -6267,8 +6630,8 @@
       <c r="U247" s="14"/>
     </row>
     <row r="248" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="37"/>
-      <c r="D248" s="40"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="41"/>
       <c r="E248" s="28">
         <v>800</v>
       </c>
@@ -6307,7 +6670,7 @@
       <c r="U248" s="14"/>
     </row>
     <row r="249" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C249" s="37"/>
+      <c r="C249" s="38"/>
       <c r="D249" s="3"/>
       <c r="E249" s="18"/>
       <c r="F249" s="18"/>
@@ -6328,7 +6691,7 @@
       <c r="U249" s="14"/>
     </row>
     <row r="250" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C250" s="37"/>
+      <c r="C250" s="38"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -6349,7 +6712,7 @@
       <c r="U250" s="14"/>
     </row>
     <row r="251" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C251" s="37"/>
+      <c r="C251" s="38"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -6370,7 +6733,7 @@
       <c r="U251" s="14"/>
     </row>
     <row r="252" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C252" s="37"/>
+      <c r="C252" s="38"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
@@ -6391,7 +6754,7 @@
       <c r="U252" s="14"/>
     </row>
     <row r="253" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C253" s="37"/>
+      <c r="C253" s="38"/>
       <c r="D253" s="3">
         <v>1</v>
       </c>
@@ -6414,7 +6777,7 @@
       <c r="U253" s="14"/>
     </row>
     <row r="254" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C254" s="37"/>
+      <c r="C254" s="38"/>
       <c r="D254" s="3"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -6435,7 +6798,7 @@
       <c r="U254" s="15"/>
     </row>
     <row r="255" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C255" s="37"/>
+      <c r="C255" s="38"/>
       <c r="D255" s="3"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -6456,7 +6819,7 @@
       <c r="U255" s="15"/>
     </row>
     <row r="256" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C256" s="37"/>
+      <c r="C256" s="38"/>
       <c r="D256" s="3"/>
       <c r="E256" s="7"/>
       <c r="F256" s="8"/>
@@ -6477,7 +6840,7 @@
       <c r="U256" s="15"/>
     </row>
     <row r="257" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="38"/>
+      <c r="C257" s="39"/>
       <c r="D257" s="16">
         <v>0</v>
       </c>
@@ -6515,53 +6878,87 @@
       <c r="U257" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:J228"/>
-    <mergeCell ref="K228:L228"/>
-    <mergeCell ref="C244:C257"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="I244:J244"/>
-    <mergeCell ref="K244:L244"/>
-    <mergeCell ref="C212:C225"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="C228:C241"/>
-    <mergeCell ref="D228:D232"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="C196:C209"/>
-    <mergeCell ref="D196:D200"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="C164:C177"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="C180:C193"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="C132:C145"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="C148:C161"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="D116:D120"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="C100:C113"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
+  <mergeCells count="139">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C84:C97"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="C52:C65"/>
+    <mergeCell ref="C68:C81"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="D52:D56"/>
     <mergeCell ref="E52:F52"/>
@@ -6575,20 +6972,52 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:C49"/>
-    <mergeCell ref="C52:C65"/>
-    <mergeCell ref="C68:C81"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C84:C97"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="C116:C129"/>
+    <mergeCell ref="D116:D120"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="C100:C113"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="C132:C145"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="C148:C161"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="C164:C177"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="C180:C193"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="C196:C209"/>
+    <mergeCell ref="D196:D200"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="C212:C225"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="C228:C241"/>
+    <mergeCell ref="D228:D232"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:J228"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="C244:C257"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="I244:J244"/>
+    <mergeCell ref="K244:L244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Engagement Table.xlsx
+++ b/Engagement Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ArmaGithub\Lazy_BT_Weapon_Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288C4D-B0E3-4396-838C-B2197F22DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE653657-B256-4623-BF0A-56BCBD37DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{03B12762-1670-4C11-A77C-13DC676D3EE1}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{03B12762-1670-4C11-A77C-13DC676D3EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tigrus Bolter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="53">
   <si>
     <t>Bolter_Auto_AI_Long_Burst</t>
   </si>
@@ -621,17 +621,38 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -648,31 +669,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,16 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1032,7 @@
   <dimension ref="B2:U257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,30 +1051,30 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="47" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1083,22 +1083,22 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1107,22 +1107,22 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -1131,30 +1131,30 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="47" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="48"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -1163,22 +1163,22 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1187,22 +1187,22 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1211,30 +1211,30 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="47" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="48"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -1243,22 +1243,22 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -1267,14 +1267,14 @@
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1283,14 +1283,14 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1299,14 +1299,14 @@
       <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1315,30 +1315,30 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="47" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="48"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -1347,30 +1347,30 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="47" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="48"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1379,146 +1379,282 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="36"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40"/>
+      <c r="J25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
+      <c r="D27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="34"/>
     </row>
     <row r="35" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="42" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="33" t="s">
+      <c r="F36" s="38"/>
+      <c r="G36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34" t="s">
+      <c r="H36" s="39"/>
+      <c r="I36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="47" t="s">
+      <c r="J36" s="40"/>
+      <c r="K36" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33"/>
+      <c r="O36" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="48"/>
+      <c r="P36" s="36"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -1526,8 +1662,8 @@
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="38"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -1571,8 +1707,8 @@
       <c r="U37" s="14"/>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="38"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="25">
         <v>700</v>
       </c>
@@ -1616,8 +1752,8 @@
       <c r="U38" s="14"/>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="38"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="27">
         <f>(E40+E38)/2</f>
         <v>850</v>
@@ -1667,8 +1803,8 @@
       <c r="U39" s="14"/>
     </row>
     <row r="40" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="38"/>
-      <c r="D40" s="41"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="28">
         <v>1000</v>
       </c>
@@ -1717,7 +1853,7 @@
       <c r="U40" s="14"/>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="38"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="3"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -1738,7 +1874,7 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="38"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1759,7 +1895,7 @@
       <c r="U42" s="14"/>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="38"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1780,7 +1916,7 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="38"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1801,7 +1937,7 @@
       <c r="U44" s="14"/>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="38"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="3">
         <v>1</v>
       </c>
@@ -1824,7 +1960,7 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="38"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -1845,7 +1981,7 @@
       <c r="U46" s="20"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="38"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1866,7 +2002,7 @@
       <c r="U47" s="20"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="38"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="3"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -1887,7 +2023,7 @@
       <c r="U48" s="20"/>
     </row>
     <row r="49" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="16">
         <v>0</v>
       </c>
@@ -1928,30 +2064,30 @@
     </row>
     <row r="51" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="42" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="33" t="s">
+      <c r="F52" s="38"/>
+      <c r="G52" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="34"/>
-      <c r="K52" s="44" t="s">
+      <c r="J52" s="40"/>
+      <c r="K52" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="44"/>
-      <c r="M52" s="35" t="s">
+      <c r="L52" s="41"/>
+      <c r="M52" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="36"/>
+      <c r="N52" s="34"/>
       <c r="O52" s="21"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -1961,8 +2097,8 @@
       <c r="U52" s="13"/>
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C53" s="38"/>
-      <c r="D53" s="41"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="23" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2138,8 @@
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C54" s="38"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="25">
         <v>700</v>
       </c>
@@ -2043,8 +2179,8 @@
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="38"/>
-      <c r="D55" s="41"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="27">
         <f>(E56+E54)/2</f>
         <v>850</v>
@@ -2089,8 +2225,8 @@
       <c r="U55" s="14"/>
     </row>
     <row r="56" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="38"/>
-      <c r="D56" s="41"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="28">
         <v>1000</v>
       </c>
@@ -2134,7 +2270,7 @@
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="38"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="3"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -2155,7 +2291,7 @@
       <c r="U57" s="14"/>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C58" s="38"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2176,7 +2312,7 @@
       <c r="U58" s="14"/>
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C59" s="38"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2197,7 +2333,7 @@
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C60" s="38"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2218,7 +2354,7 @@
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="38"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="3">
         <v>1</v>
       </c>
@@ -2241,7 +2377,7 @@
       <c r="U61" s="14"/>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C62" s="38"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="3"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -2262,7 +2398,7 @@
       <c r="U62" s="15"/>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C63" s="38"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="3"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2283,7 +2419,7 @@
       <c r="U63" s="15"/>
     </row>
     <row r="64" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C64" s="38"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="3"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
@@ -2304,7 +2440,7 @@
       <c r="U64" s="15"/>
     </row>
     <row r="65" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="16">
         <v>0</v>
       </c>
@@ -2345,26 +2481,26 @@
     </row>
     <row r="67" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="3:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="42" t="s">
+      <c r="D68" s="47"/>
+      <c r="E68" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="43"/>
-      <c r="G68" s="33" t="s">
+      <c r="F68" s="38"/>
+      <c r="G68" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="34" t="s">
+      <c r="H68" s="39"/>
+      <c r="I68" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="35" t="s">
+      <c r="J68" s="40"/>
+      <c r="K68" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="36"/>
+      <c r="L68" s="34"/>
       <c r="M68" s="21"/>
       <c r="N68" s="12"/>
       <c r="O68" s="21"/>
@@ -2376,8 +2512,8 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C69" s="38"/>
-      <c r="D69" s="41"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="23" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2549,8 @@
       <c r="U69" s="14"/>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C70" s="38"/>
-      <c r="D70" s="41"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="25">
         <v>1600</v>
       </c>
@@ -2450,8 +2586,8 @@
       <c r="U70" s="14"/>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C71" s="38"/>
-      <c r="D71" s="41"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="27">
         <f>(E72+E70)/2</f>
         <v>1800</v>
@@ -2491,8 +2627,8 @@
       <c r="U71" s="14"/>
     </row>
     <row r="72" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="38"/>
-      <c r="D72" s="41"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="28">
         <v>2000</v>
       </c>
@@ -2531,7 +2667,7 @@
       <c r="U72" s="14"/>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C73" s="38"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="3"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -2552,7 +2688,7 @@
       <c r="U73" s="14"/>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C74" s="38"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2573,7 +2709,7 @@
       <c r="U74" s="14"/>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C75" s="38"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -2594,7 +2730,7 @@
       <c r="U75" s="14"/>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C76" s="38"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2615,7 +2751,7 @@
       <c r="U76" s="14"/>
     </row>
     <row r="77" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C77" s="38"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="3">
         <v>1</v>
       </c>
@@ -2638,7 +2774,7 @@
       <c r="U77" s="14"/>
     </row>
     <row r="78" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C78" s="38"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="3"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -2659,7 +2795,7 @@
       <c r="U78" s="15"/>
     </row>
     <row r="79" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C79" s="38"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="3"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -2680,7 +2816,7 @@
       <c r="U79" s="15"/>
     </row>
     <row r="80" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C80" s="38"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="3"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8"/>
@@ -2701,7 +2837,7 @@
       <c r="U80" s="15"/>
     </row>
     <row r="81" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="39"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="16">
         <v>0</v>
       </c>
@@ -2740,26 +2876,26 @@
     </row>
     <row r="83" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="42" t="s">
+      <c r="D84" s="47"/>
+      <c r="E84" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H84" s="33"/>
-      <c r="I84" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="34"/>
-      <c r="K84" s="35" t="s">
+      <c r="F84" s="38"/>
+      <c r="G84" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="40"/>
+      <c r="K84" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L84" s="36"/>
+      <c r="L84" s="34"/>
       <c r="M84" s="21"/>
       <c r="N84" s="12"/>
       <c r="O84" s="21"/>
@@ -2771,8 +2907,8 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C85" s="38"/>
-      <c r="D85" s="41"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="48"/>
       <c r="E85" s="23" t="s">
         <v>3</v>
       </c>
@@ -2808,8 +2944,8 @@
       <c r="U85" s="14"/>
     </row>
     <row r="86" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C86" s="38"/>
-      <c r="D86" s="41"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="48"/>
       <c r="E86" s="25">
         <v>600</v>
       </c>
@@ -2845,8 +2981,8 @@
       <c r="U86" s="14"/>
     </row>
     <row r="87" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C87" s="38"/>
-      <c r="D87" s="41"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="27">
         <f>(E88+E86)/2</f>
         <v>800</v>
@@ -2886,8 +3022,8 @@
       <c r="U87" s="14"/>
     </row>
     <row r="88" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="38"/>
-      <c r="D88" s="41"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="28">
         <v>1000</v>
       </c>
@@ -2926,7 +3062,7 @@
       <c r="U88" s="14"/>
     </row>
     <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="38"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="3"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -2947,7 +3083,7 @@
       <c r="U89" s="14"/>
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" s="38"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2968,7 +3104,7 @@
       <c r="U90" s="14"/>
     </row>
     <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" s="38"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2989,7 +3125,7 @@
       <c r="U91" s="14"/>
     </row>
     <row r="92" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C92" s="38"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -3010,7 +3146,7 @@
       <c r="U92" s="14"/>
     </row>
     <row r="93" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C93" s="38"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="3">
         <v>1</v>
       </c>
@@ -3033,7 +3169,7 @@
       <c r="U93" s="14"/>
     </row>
     <row r="94" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C94" s="38"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="3"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -3054,7 +3190,7 @@
       <c r="U94" s="15"/>
     </row>
     <row r="95" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C95" s="38"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="3"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -3075,7 +3211,7 @@
       <c r="U95" s="15"/>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" s="38"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="3"/>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
@@ -3096,7 +3232,7 @@
       <c r="U96" s="15"/>
     </row>
     <row r="97" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="39"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="16">
         <v>0</v>
       </c>
@@ -3135,26 +3271,26 @@
     </row>
     <row r="99" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="37" t="s">
+      <c r="C100" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="42" t="s">
+      <c r="D100" s="47"/>
+      <c r="E100" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H100" s="33"/>
-      <c r="I100" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35" t="s">
+      <c r="F100" s="38"/>
+      <c r="G100" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="40"/>
+      <c r="K100" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L100" s="36"/>
+      <c r="L100" s="34"/>
       <c r="M100" s="21"/>
       <c r="N100" s="12"/>
       <c r="O100" s="21"/>
@@ -3166,8 +3302,8 @@
       <c r="U100" s="13"/>
     </row>
     <row r="101" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C101" s="38"/>
-      <c r="D101" s="41"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="23" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3339,8 @@
       <c r="U101" s="14"/>
     </row>
     <row r="102" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C102" s="38"/>
-      <c r="D102" s="41"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="48"/>
       <c r="E102" s="25">
         <v>1000</v>
       </c>
@@ -3240,8 +3376,8 @@
       <c r="U102" s="14"/>
     </row>
     <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C103" s="38"/>
-      <c r="D103" s="41"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="48"/>
       <c r="E103" s="27">
         <f>(E104+E102)/2</f>
         <v>1150</v>
@@ -3279,8 +3415,8 @@
       <c r="U103" s="14"/>
     </row>
     <row r="104" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="38"/>
-      <c r="D104" s="41"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="28">
         <v>1300</v>
       </c>
@@ -3319,7 +3455,7 @@
       <c r="U104" s="14"/>
     </row>
     <row r="105" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C105" s="38"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="3"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
@@ -3340,7 +3476,7 @@
       <c r="U105" s="14"/>
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C106" s="38"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -3361,7 +3497,7 @@
       <c r="U106" s="14"/>
     </row>
     <row r="107" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C107" s="38"/>
+      <c r="C107" s="45"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -3382,7 +3518,7 @@
       <c r="U107" s="14"/>
     </row>
     <row r="108" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C108" s="38"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3403,7 +3539,7 @@
       <c r="U108" s="14"/>
     </row>
     <row r="109" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C109" s="38"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="3">
         <v>1</v>
       </c>
@@ -3426,7 +3562,7 @@
       <c r="U109" s="14"/>
     </row>
     <row r="110" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C110" s="38"/>
+      <c r="C110" s="45"/>
       <c r="D110" s="3"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -3447,7 +3583,7 @@
       <c r="U110" s="15"/>
     </row>
     <row r="111" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C111" s="38"/>
+      <c r="C111" s="45"/>
       <c r="D111" s="3"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -3468,7 +3604,7 @@
       <c r="U111" s="15"/>
     </row>
     <row r="112" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C112" s="38"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="3"/>
       <c r="E112" s="7"/>
       <c r="F112" s="8"/>
@@ -3489,7 +3625,7 @@
       <c r="U112" s="15"/>
     </row>
     <row r="113" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="39"/>
+      <c r="C113" s="46"/>
       <c r="D113" s="16">
         <v>0</v>
       </c>
@@ -3528,18 +3664,18 @@
     </row>
     <row r="115" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="45" t="s">
+      <c r="D116" s="47"/>
+      <c r="E116" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="46"/>
-      <c r="G116" s="35" t="s">
+      <c r="F116" s="43"/>
+      <c r="G116" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="36"/>
+      <c r="H116" s="34"/>
       <c r="I116" s="21"/>
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
@@ -3555,8 +3691,8 @@
       <c r="U116" s="13"/>
     </row>
     <row r="117" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C117" s="38"/>
-      <c r="D117" s="41"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="23" t="s">
         <v>3</v>
       </c>
@@ -3584,8 +3720,8 @@
       <c r="U117" s="14"/>
     </row>
     <row r="118" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C118" s="38"/>
-      <c r="D118" s="41"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="48"/>
       <c r="E118" s="25">
         <v>150</v>
       </c>
@@ -3613,8 +3749,8 @@
       <c r="U118" s="14"/>
     </row>
     <row r="119" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C119" s="38"/>
-      <c r="D119" s="41"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="48"/>
       <c r="E119" s="27">
         <f>(E120+E118)/2</f>
         <v>175</v>
@@ -3644,8 +3780,8 @@
       <c r="U119" s="14"/>
     </row>
     <row r="120" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="38"/>
-      <c r="D120" s="41"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="28">
         <v>200</v>
       </c>
@@ -3674,7 +3810,7 @@
       <c r="U120" s="14"/>
     </row>
     <row r="121" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C121" s="38"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="3"/>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
@@ -3695,7 +3831,7 @@
       <c r="U121" s="14"/>
     </row>
     <row r="122" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C122" s="38"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -3716,7 +3852,7 @@
       <c r="U122" s="14"/>
     </row>
     <row r="123" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C123" s="38"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3737,7 +3873,7 @@
       <c r="U123" s="14"/>
     </row>
     <row r="124" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C124" s="38"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -3758,7 +3894,7 @@
       <c r="U124" s="14"/>
     </row>
     <row r="125" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C125" s="38"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="3">
         <v>1</v>
       </c>
@@ -3781,7 +3917,7 @@
       <c r="U125" s="14"/>
     </row>
     <row r="126" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C126" s="38"/>
+      <c r="C126" s="45"/>
       <c r="D126" s="3"/>
       <c r="E126" s="7"/>
       <c r="F126" s="11"/>
@@ -3802,7 +3938,7 @@
       <c r="U126" s="15"/>
     </row>
     <row r="127" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C127" s="38"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="3"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -3823,7 +3959,7 @@
       <c r="U127" s="15"/>
     </row>
     <row r="128" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C128" s="38"/>
+      <c r="C128" s="45"/>
       <c r="D128" s="3"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -3844,7 +3980,7 @@
       <c r="U128" s="15"/>
     </row>
     <row r="129" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="39"/>
+      <c r="C129" s="46"/>
       <c r="D129" s="16">
         <v>0</v>
       </c>
@@ -3881,18 +4017,18 @@
     </row>
     <row r="131" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C132" s="37" t="s">
+      <c r="C132" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="45" t="s">
+      <c r="D132" s="47"/>
+      <c r="E132" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="46"/>
-      <c r="G132" s="35" t="s">
+      <c r="F132" s="43"/>
+      <c r="G132" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H132" s="36"/>
+      <c r="H132" s="34"/>
       <c r="I132" s="21"/>
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
@@ -3908,8 +4044,8 @@
       <c r="U132" s="13"/>
     </row>
     <row r="133" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C133" s="38"/>
-      <c r="D133" s="41"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="48"/>
       <c r="E133" s="23" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4073,8 @@
       <c r="U133" s="14"/>
     </row>
     <row r="134" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C134" s="38"/>
-      <c r="D134" s="41"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="48"/>
       <c r="E134" s="25">
         <v>150</v>
       </c>
@@ -3966,8 +4102,8 @@
       <c r="U134" s="14"/>
     </row>
     <row r="135" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C135" s="38"/>
-      <c r="D135" s="41"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="48"/>
       <c r="E135" s="27">
         <f>(E136+E134)/2</f>
         <v>225</v>
@@ -3997,8 +4133,8 @@
       <c r="U135" s="14"/>
     </row>
     <row r="136" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="38"/>
-      <c r="D136" s="41"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="28">
         <v>300</v>
       </c>
@@ -4027,7 +4163,7 @@
       <c r="U136" s="14"/>
     </row>
     <row r="137" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C137" s="38"/>
+      <c r="C137" s="45"/>
       <c r="D137" s="3"/>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
@@ -4048,7 +4184,7 @@
       <c r="U137" s="14"/>
     </row>
     <row r="138" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C138" s="38"/>
+      <c r="C138" s="45"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -4069,7 +4205,7 @@
       <c r="U138" s="14"/>
     </row>
     <row r="139" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C139" s="38"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -4090,7 +4226,7 @@
       <c r="U139" s="14"/>
     </row>
     <row r="140" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C140" s="38"/>
+      <c r="C140" s="45"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -4111,7 +4247,7 @@
       <c r="U140" s="14"/>
     </row>
     <row r="141" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C141" s="38"/>
+      <c r="C141" s="45"/>
       <c r="D141" s="3">
         <v>1</v>
       </c>
@@ -4134,7 +4270,7 @@
       <c r="U141" s="14"/>
     </row>
     <row r="142" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C142" s="38"/>
+      <c r="C142" s="45"/>
       <c r="D142" s="3"/>
       <c r="E142" s="7"/>
       <c r="F142" s="11"/>
@@ -4155,7 +4291,7 @@
       <c r="U142" s="15"/>
     </row>
     <row r="143" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C143" s="38"/>
+      <c r="C143" s="45"/>
       <c r="D143" s="3"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -4176,7 +4312,7 @@
       <c r="U143" s="15"/>
     </row>
     <row r="144" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C144" s="38"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="3"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -4197,7 +4333,7 @@
       <c r="U144" s="15"/>
     </row>
     <row r="145" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="39"/>
+      <c r="C145" s="46"/>
       <c r="D145" s="16">
         <v>0</v>
       </c>
@@ -4236,18 +4372,18 @@
     </row>
     <row r="147" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="40"/>
-      <c r="E148" s="45" t="s">
+      <c r="D148" s="47"/>
+      <c r="E148" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="46"/>
-      <c r="G148" s="35" t="s">
+      <c r="F148" s="43"/>
+      <c r="G148" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H148" s="36"/>
+      <c r="H148" s="34"/>
       <c r="I148" s="21"/>
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
@@ -4263,8 +4399,8 @@
       <c r="U148" s="13"/>
     </row>
     <row r="149" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C149" s="38"/>
-      <c r="D149" s="41"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="48"/>
       <c r="E149" s="23" t="s">
         <v>3</v>
       </c>
@@ -4292,8 +4428,8 @@
       <c r="U149" s="14"/>
     </row>
     <row r="150" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C150" s="38"/>
-      <c r="D150" s="41"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="48"/>
       <c r="E150" s="25">
         <v>100</v>
       </c>
@@ -4321,8 +4457,8 @@
       <c r="U150" s="14"/>
     </row>
     <row r="151" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C151" s="38"/>
-      <c r="D151" s="41"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="48"/>
       <c r="E151" s="27">
         <f>(E152+E150)/2</f>
         <v>125</v>
@@ -4352,8 +4488,8 @@
       <c r="U151" s="14"/>
     </row>
     <row r="152" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="38"/>
-      <c r="D152" s="41"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="48"/>
       <c r="E152" s="28">
         <v>150</v>
       </c>
@@ -4381,7 +4517,7 @@
       <c r="U152" s="14"/>
     </row>
     <row r="153" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C153" s="38"/>
+      <c r="C153" s="45"/>
       <c r="D153" s="3"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
@@ -4402,7 +4538,7 @@
       <c r="U153" s="14"/>
     </row>
     <row r="154" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C154" s="38"/>
+      <c r="C154" s="45"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -4423,7 +4559,7 @@
       <c r="U154" s="14"/>
     </row>
     <row r="155" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C155" s="38"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -4444,7 +4580,7 @@
       <c r="U155" s="14"/>
     </row>
     <row r="156" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C156" s="38"/>
+      <c r="C156" s="45"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -4465,7 +4601,7 @@
       <c r="U156" s="14"/>
     </row>
     <row r="157" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C157" s="38"/>
+      <c r="C157" s="45"/>
       <c r="D157" s="3">
         <v>1</v>
       </c>
@@ -4488,7 +4624,7 @@
       <c r="U157" s="14"/>
     </row>
     <row r="158" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C158" s="38"/>
+      <c r="C158" s="45"/>
       <c r="D158" s="3"/>
       <c r="E158" s="7"/>
       <c r="F158" s="11"/>
@@ -4509,7 +4645,7 @@
       <c r="U158" s="15"/>
     </row>
     <row r="159" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C159" s="38"/>
+      <c r="C159" s="45"/>
       <c r="D159" s="3"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -4530,7 +4666,7 @@
       <c r="U159" s="15"/>
     </row>
     <row r="160" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C160" s="38"/>
+      <c r="C160" s="45"/>
       <c r="D160" s="3"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -4551,7 +4687,7 @@
       <c r="U160" s="15"/>
     </row>
     <row r="161" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="39"/>
+      <c r="C161" s="46"/>
       <c r="D161" s="16">
         <v>0</v>
       </c>
@@ -4589,18 +4725,18 @@
     </row>
     <row r="163" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="164" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="37" t="s">
+      <c r="C164" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D164" s="40"/>
-      <c r="E164" s="45" t="s">
+      <c r="D164" s="47"/>
+      <c r="E164" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="46"/>
-      <c r="G164" s="35" t="s">
+      <c r="F164" s="43"/>
+      <c r="G164" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="36"/>
+      <c r="H164" s="34"/>
       <c r="I164" s="21"/>
       <c r="J164" s="12"/>
       <c r="K164" s="21"/>
@@ -4616,8 +4752,8 @@
       <c r="U164" s="13"/>
     </row>
     <row r="165" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C165" s="38"/>
-      <c r="D165" s="41"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="48"/>
       <c r="E165" s="23" t="s">
         <v>3</v>
       </c>
@@ -4645,8 +4781,8 @@
       <c r="U165" s="14"/>
     </row>
     <row r="166" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C166" s="38"/>
-      <c r="D166" s="41"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="48"/>
       <c r="E166" s="25">
         <v>700</v>
       </c>
@@ -4674,8 +4810,8 @@
       <c r="U166" s="14"/>
     </row>
     <row r="167" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C167" s="38"/>
-      <c r="D167" s="41"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="48"/>
       <c r="E167" s="27">
         <f>(E168+E166)/2</f>
         <v>850</v>
@@ -4705,8 +4841,8 @@
       <c r="U167" s="14"/>
     </row>
     <row r="168" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="38"/>
-      <c r="D168" s="41"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="48"/>
       <c r="E168" s="28">
         <v>1000</v>
       </c>
@@ -4735,7 +4871,7 @@
       <c r="U168" s="14"/>
     </row>
     <row r="169" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C169" s="38"/>
+      <c r="C169" s="45"/>
       <c r="D169" s="3"/>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
@@ -4756,7 +4892,7 @@
       <c r="U169" s="14"/>
     </row>
     <row r="170" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C170" s="38"/>
+      <c r="C170" s="45"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -4777,7 +4913,7 @@
       <c r="U170" s="14"/>
     </row>
     <row r="171" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C171" s="38"/>
+      <c r="C171" s="45"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -4798,7 +4934,7 @@
       <c r="U171" s="14"/>
     </row>
     <row r="172" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C172" s="38"/>
+      <c r="C172" s="45"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -4819,7 +4955,7 @@
       <c r="U172" s="14"/>
     </row>
     <row r="173" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C173" s="38"/>
+      <c r="C173" s="45"/>
       <c r="D173" s="3">
         <v>1</v>
       </c>
@@ -4842,7 +4978,7 @@
       <c r="U173" s="14"/>
     </row>
     <row r="174" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C174" s="38"/>
+      <c r="C174" s="45"/>
       <c r="D174" s="3"/>
       <c r="E174" s="7"/>
       <c r="F174" s="11"/>
@@ -4863,7 +4999,7 @@
       <c r="U174" s="15"/>
     </row>
     <row r="175" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C175" s="38"/>
+      <c r="C175" s="45"/>
       <c r="D175" s="3"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -4884,7 +5020,7 @@
       <c r="U175" s="15"/>
     </row>
     <row r="176" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C176" s="38"/>
+      <c r="C176" s="45"/>
       <c r="D176" s="3"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -4905,7 +5041,7 @@
       <c r="U176" s="15"/>
     </row>
     <row r="177" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="39"/>
+      <c r="C177" s="46"/>
       <c r="D177" s="16">
         <v>0</v>
       </c>
@@ -4943,34 +5079,34 @@
     </row>
     <row r="179" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="37" t="s">
+      <c r="C180" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D180" s="40"/>
-      <c r="E180" s="45" t="s">
+      <c r="D180" s="47"/>
+      <c r="E180" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="46"/>
-      <c r="G180" s="55" t="s">
+      <c r="F180" s="43"/>
+      <c r="G180" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H180" s="56"/>
-      <c r="I180" s="53" t="s">
+      <c r="H180" s="50"/>
+      <c r="I180" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J180" s="54"/>
-      <c r="K180" s="51" t="s">
+      <c r="J180" s="52"/>
+      <c r="K180" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L180" s="52"/>
-      <c r="M180" s="49" t="s">
+      <c r="L180" s="54"/>
+      <c r="M180" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="N180" s="50"/>
-      <c r="O180" s="47" t="s">
+      <c r="N180" s="56"/>
+      <c r="O180" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P180" s="48"/>
+      <c r="P180" s="36"/>
       <c r="Q180" s="12"/>
       <c r="R180" s="12"/>
       <c r="S180" s="12"/>
@@ -4978,8 +5114,8 @@
       <c r="U180" s="13"/>
     </row>
     <row r="181" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C181" s="38"/>
-      <c r="D181" s="41"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="48"/>
       <c r="E181" s="23" t="s">
         <v>3</v>
       </c>
@@ -5023,8 +5159,8 @@
       <c r="U181" s="14"/>
     </row>
     <row r="182" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C182" s="38"/>
-      <c r="D182" s="41"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="48"/>
       <c r="E182" s="25">
         <v>500</v>
       </c>
@@ -5068,8 +5204,8 @@
       <c r="U182" s="14"/>
     </row>
     <row r="183" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C183" s="38"/>
-      <c r="D183" s="41"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="48"/>
       <c r="E183" s="27">
         <f>(E184+E182)/2</f>
         <v>750</v>
@@ -5119,8 +5255,8 @@
       <c r="U183" s="14"/>
     </row>
     <row r="184" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="38"/>
-      <c r="D184" s="41"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="28">
         <v>1000</v>
       </c>
@@ -5169,7 +5305,7 @@
       <c r="U184" s="14"/>
     </row>
     <row r="185" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C185" s="38"/>
+      <c r="C185" s="45"/>
       <c r="D185" s="3"/>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
@@ -5190,7 +5326,7 @@
       <c r="U185" s="14"/>
     </row>
     <row r="186" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C186" s="38"/>
+      <c r="C186" s="45"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -5211,7 +5347,7 @@
       <c r="U186" s="14"/>
     </row>
     <row r="187" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C187" s="38"/>
+      <c r="C187" s="45"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -5232,7 +5368,7 @@
       <c r="U187" s="14"/>
     </row>
     <row r="188" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C188" s="38"/>
+      <c r="C188" s="45"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -5253,7 +5389,7 @@
       <c r="U188" s="14"/>
     </row>
     <row r="189" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C189" s="38"/>
+      <c r="C189" s="45"/>
       <c r="D189" s="3">
         <v>1</v>
       </c>
@@ -5276,7 +5412,7 @@
       <c r="U189" s="14"/>
     </row>
     <row r="190" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C190" s="38"/>
+      <c r="C190" s="45"/>
       <c r="D190" s="3"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -5297,7 +5433,7 @@
       <c r="U190" s="20"/>
     </row>
     <row r="191" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C191" s="38"/>
+      <c r="C191" s="45"/>
       <c r="D191" s="3"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -5318,7 +5454,7 @@
       <c r="U191" s="20"/>
     </row>
     <row r="192" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C192" s="38"/>
+      <c r="C192" s="45"/>
       <c r="D192" s="3"/>
       <c r="E192" s="7"/>
       <c r="F192" s="8"/>
@@ -5339,7 +5475,7 @@
       <c r="U192" s="20"/>
     </row>
     <row r="193" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="39"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="16">
         <v>0</v>
       </c>
@@ -5380,18 +5516,18 @@
     </row>
     <row r="195" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="196" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C196" s="37" t="s">
+      <c r="C196" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="40"/>
-      <c r="E196" s="45" t="s">
+      <c r="D196" s="47"/>
+      <c r="E196" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F196" s="46"/>
-      <c r="G196" s="35" t="s">
+      <c r="F196" s="43"/>
+      <c r="G196" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H196" s="36"/>
+      <c r="H196" s="34"/>
       <c r="I196" s="21"/>
       <c r="J196" s="12"/>
       <c r="K196" s="21"/>
@@ -5407,8 +5543,8 @@
       <c r="U196" s="13"/>
     </row>
     <row r="197" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C197" s="38"/>
-      <c r="D197" s="41"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="48"/>
       <c r="E197" s="23" t="s">
         <v>3</v>
       </c>
@@ -5436,8 +5572,8 @@
       <c r="U197" s="14"/>
     </row>
     <row r="198" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C198" s="38"/>
-      <c r="D198" s="41"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="48"/>
       <c r="E198" s="25">
         <v>1000</v>
       </c>
@@ -5465,8 +5601,8 @@
       <c r="U198" s="14"/>
     </row>
     <row r="199" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C199" s="38"/>
-      <c r="D199" s="41"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="48"/>
       <c r="E199" s="27">
         <f>(E200+E198)/2</f>
         <v>1250</v>
@@ -5496,8 +5632,8 @@
       <c r="U199" s="14"/>
     </row>
     <row r="200" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="38"/>
-      <c r="D200" s="41"/>
+      <c r="C200" s="45"/>
+      <c r="D200" s="48"/>
       <c r="E200" s="28">
         <v>1500</v>
       </c>
@@ -5526,7 +5662,7 @@
       <c r="U200" s="14"/>
     </row>
     <row r="201" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C201" s="38"/>
+      <c r="C201" s="45"/>
       <c r="D201" s="3"/>
       <c r="E201" s="18"/>
       <c r="F201" s="18"/>
@@ -5547,7 +5683,7 @@
       <c r="U201" s="14"/>
     </row>
     <row r="202" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C202" s="38"/>
+      <c r="C202" s="45"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -5568,7 +5704,7 @@
       <c r="U202" s="14"/>
     </row>
     <row r="203" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C203" s="38"/>
+      <c r="C203" s="45"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -5589,7 +5725,7 @@
       <c r="U203" s="14"/>
     </row>
     <row r="204" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C204" s="38"/>
+      <c r="C204" s="45"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -5610,7 +5746,7 @@
       <c r="U204" s="14"/>
     </row>
     <row r="205" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C205" s="38"/>
+      <c r="C205" s="45"/>
       <c r="D205" s="3">
         <v>1</v>
       </c>
@@ -5633,7 +5769,7 @@
       <c r="U205" s="14"/>
     </row>
     <row r="206" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C206" s="38"/>
+      <c r="C206" s="45"/>
       <c r="D206" s="3"/>
       <c r="E206" s="7"/>
       <c r="F206" s="11"/>
@@ -5654,7 +5790,7 @@
       <c r="U206" s="15"/>
     </row>
     <row r="207" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C207" s="38"/>
+      <c r="C207" s="45"/>
       <c r="D207" s="3"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -5675,7 +5811,7 @@
       <c r="U207" s="15"/>
     </row>
     <row r="208" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C208" s="38"/>
+      <c r="C208" s="45"/>
       <c r="D208" s="3"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -5696,7 +5832,7 @@
       <c r="U208" s="15"/>
     </row>
     <row r="209" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="39"/>
+      <c r="C209" s="46"/>
       <c r="D209" s="16">
         <v>0</v>
       </c>
@@ -5735,18 +5871,18 @@
     </row>
     <row r="211" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="212" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C212" s="37" t="s">
+      <c r="C212" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D212" s="40"/>
-      <c r="E212" s="45" t="s">
+      <c r="D212" s="47"/>
+      <c r="E212" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F212" s="46"/>
-      <c r="G212" s="35" t="s">
+      <c r="F212" s="43"/>
+      <c r="G212" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H212" s="36"/>
+      <c r="H212" s="34"/>
       <c r="I212" s="21"/>
       <c r="J212" s="12"/>
       <c r="K212" s="21"/>
@@ -5762,8 +5898,8 @@
       <c r="U212" s="13"/>
     </row>
     <row r="213" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C213" s="38"/>
-      <c r="D213" s="41"/>
+      <c r="C213" s="45"/>
+      <c r="D213" s="48"/>
       <c r="E213" s="23" t="s">
         <v>3</v>
       </c>
@@ -5791,8 +5927,8 @@
       <c r="U213" s="14"/>
     </row>
     <row r="214" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C214" s="38"/>
-      <c r="D214" s="41"/>
+      <c r="C214" s="45"/>
+      <c r="D214" s="48"/>
       <c r="E214" s="25">
         <v>1000</v>
       </c>
@@ -5820,8 +5956,8 @@
       <c r="U214" s="14"/>
     </row>
     <row r="215" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C215" s="38"/>
-      <c r="D215" s="41"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="48"/>
       <c r="E215" s="27">
         <f>(E216+E214)/2</f>
         <v>1150</v>
@@ -5851,8 +5987,8 @@
       <c r="U215" s="14"/>
     </row>
     <row r="216" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="38"/>
-      <c r="D216" s="41"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="48"/>
       <c r="E216" s="28">
         <v>1300</v>
       </c>
@@ -5881,7 +6017,7 @@
       <c r="U216" s="14"/>
     </row>
     <row r="217" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C217" s="38"/>
+      <c r="C217" s="45"/>
       <c r="D217" s="3"/>
       <c r="E217" s="18"/>
       <c r="F217" s="18"/>
@@ -5902,7 +6038,7 @@
       <c r="U217" s="14"/>
     </row>
     <row r="218" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C218" s="38"/>
+      <c r="C218" s="45"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -5923,7 +6059,7 @@
       <c r="U218" s="14"/>
     </row>
     <row r="219" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C219" s="38"/>
+      <c r="C219" s="45"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -5944,7 +6080,7 @@
       <c r="U219" s="14"/>
     </row>
     <row r="220" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C220" s="38"/>
+      <c r="C220" s="45"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -5965,7 +6101,7 @@
       <c r="U220" s="14"/>
     </row>
     <row r="221" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C221" s="38"/>
+      <c r="C221" s="45"/>
       <c r="D221" s="3">
         <v>1</v>
       </c>
@@ -5988,7 +6124,7 @@
       <c r="U221" s="14"/>
     </row>
     <row r="222" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C222" s="38"/>
+      <c r="C222" s="45"/>
       <c r="D222" s="3"/>
       <c r="E222" s="7"/>
       <c r="F222" s="11"/>
@@ -6009,7 +6145,7 @@
       <c r="U222" s="15"/>
     </row>
     <row r="223" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C223" s="38"/>
+      <c r="C223" s="45"/>
       <c r="D223" s="3"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -6030,7 +6166,7 @@
       <c r="U223" s="15"/>
     </row>
     <row r="224" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C224" s="38"/>
+      <c r="C224" s="45"/>
       <c r="D224" s="3"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -6051,7 +6187,7 @@
       <c r="U224" s="15"/>
     </row>
     <row r="225" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="39"/>
+      <c r="C225" s="46"/>
       <c r="D225" s="16">
         <v>0</v>
       </c>
@@ -6089,26 +6225,26 @@
     </row>
     <row r="227" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="228" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C228" s="37" t="s">
+      <c r="C228" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D228" s="40"/>
-      <c r="E228" s="42" t="s">
+      <c r="D228" s="47"/>
+      <c r="E228" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F228" s="43"/>
-      <c r="G228" s="33" t="s">
+      <c r="F228" s="38"/>
+      <c r="G228" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H228" s="33"/>
-      <c r="I228" s="34" t="s">
+      <c r="H228" s="39"/>
+      <c r="I228" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J228" s="34"/>
-      <c r="K228" s="35" t="s">
+      <c r="J228" s="40"/>
+      <c r="K228" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L228" s="36"/>
+      <c r="L228" s="34"/>
       <c r="M228" s="21"/>
       <c r="N228" s="12"/>
       <c r="O228" s="21"/>
@@ -6120,8 +6256,8 @@
       <c r="U228" s="13"/>
     </row>
     <row r="229" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C229" s="38"/>
-      <c r="D229" s="41"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="48"/>
       <c r="E229" s="23" t="s">
         <v>3</v>
       </c>
@@ -6157,8 +6293,8 @@
       <c r="U229" s="14"/>
     </row>
     <row r="230" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C230" s="38"/>
-      <c r="D230" s="41"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="48"/>
       <c r="E230" s="25">
         <v>1600</v>
       </c>
@@ -6194,8 +6330,8 @@
       <c r="U230" s="14"/>
     </row>
     <row r="231" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C231" s="38"/>
-      <c r="D231" s="41"/>
+      <c r="C231" s="45"/>
+      <c r="D231" s="48"/>
       <c r="E231" s="27">
         <f>(E232+E230)/2</f>
         <v>1800</v>
@@ -6235,8 +6371,8 @@
       <c r="U231" s="14"/>
     </row>
     <row r="232" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="38"/>
-      <c r="D232" s="41"/>
+      <c r="C232" s="45"/>
+      <c r="D232" s="48"/>
       <c r="E232" s="28">
         <v>2000</v>
       </c>
@@ -6275,7 +6411,7 @@
       <c r="U232" s="14"/>
     </row>
     <row r="233" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C233" s="38"/>
+      <c r="C233" s="45"/>
       <c r="D233" s="3"/>
       <c r="E233" s="18"/>
       <c r="F233" s="18"/>
@@ -6296,7 +6432,7 @@
       <c r="U233" s="14"/>
     </row>
     <row r="234" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C234" s="38"/>
+      <c r="C234" s="45"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -6317,7 +6453,7 @@
       <c r="U234" s="14"/>
     </row>
     <row r="235" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C235" s="38"/>
+      <c r="C235" s="45"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -6338,7 +6474,7 @@
       <c r="U235" s="14"/>
     </row>
     <row r="236" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C236" s="38"/>
+      <c r="C236" s="45"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -6359,7 +6495,7 @@
       <c r="U236" s="14"/>
     </row>
     <row r="237" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C237" s="38"/>
+      <c r="C237" s="45"/>
       <c r="D237" s="3">
         <v>1</v>
       </c>
@@ -6382,7 +6518,7 @@
       <c r="U237" s="14"/>
     </row>
     <row r="238" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C238" s="38"/>
+      <c r="C238" s="45"/>
       <c r="D238" s="3"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
@@ -6403,7 +6539,7 @@
       <c r="U238" s="15"/>
     </row>
     <row r="239" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C239" s="38"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="3"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
@@ -6424,7 +6560,7 @@
       <c r="U239" s="15"/>
     </row>
     <row r="240" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C240" s="38"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="3"/>
       <c r="E240" s="7"/>
       <c r="F240" s="8"/>
@@ -6445,7 +6581,7 @@
       <c r="U240" s="15"/>
     </row>
     <row r="241" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="39"/>
+      <c r="C241" s="46"/>
       <c r="D241" s="16">
         <v>0</v>
       </c>
@@ -6484,26 +6620,26 @@
     </row>
     <row r="243" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="244" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C244" s="37" t="s">
+      <c r="C244" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D244" s="40"/>
-      <c r="E244" s="42" t="s">
+      <c r="D244" s="47"/>
+      <c r="E244" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F244" s="43"/>
-      <c r="G244" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H244" s="33"/>
-      <c r="I244" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J244" s="34"/>
-      <c r="K244" s="35" t="s">
+      <c r="F244" s="38"/>
+      <c r="G244" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J244" s="40"/>
+      <c r="K244" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L244" s="36"/>
+      <c r="L244" s="34"/>
       <c r="M244" s="21"/>
       <c r="N244" s="12"/>
       <c r="O244" s="21"/>
@@ -6515,8 +6651,8 @@
       <c r="U244" s="13"/>
     </row>
     <row r="245" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C245" s="38"/>
-      <c r="D245" s="41"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="48"/>
       <c r="E245" s="23" t="s">
         <v>3</v>
       </c>
@@ -6552,8 +6688,8 @@
       <c r="U245" s="14"/>
     </row>
     <row r="246" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C246" s="38"/>
-      <c r="D246" s="41"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="48"/>
       <c r="E246" s="25">
         <v>400</v>
       </c>
@@ -6589,8 +6725,8 @@
       <c r="U246" s="14"/>
     </row>
     <row r="247" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C247" s="38"/>
-      <c r="D247" s="41"/>
+      <c r="C247" s="45"/>
+      <c r="D247" s="48"/>
       <c r="E247" s="27">
         <f>(E248+E246)/2</f>
         <v>600</v>
@@ -6630,8 +6766,8 @@
       <c r="U247" s="14"/>
     </row>
     <row r="248" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="38"/>
-      <c r="D248" s="41"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="48"/>
       <c r="E248" s="28">
         <v>800</v>
       </c>
@@ -6670,7 +6806,7 @@
       <c r="U248" s="14"/>
     </row>
     <row r="249" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C249" s="38"/>
+      <c r="C249" s="45"/>
       <c r="D249" s="3"/>
       <c r="E249" s="18"/>
       <c r="F249" s="18"/>
@@ -6691,7 +6827,7 @@
       <c r="U249" s="14"/>
     </row>
     <row r="250" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C250" s="38"/>
+      <c r="C250" s="45"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -6712,7 +6848,7 @@
       <c r="U250" s="14"/>
     </row>
     <row r="251" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C251" s="38"/>
+      <c r="C251" s="45"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -6733,7 +6869,7 @@
       <c r="U251" s="14"/>
     </row>
     <row r="252" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C252" s="38"/>
+      <c r="C252" s="45"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
@@ -6754,7 +6890,7 @@
       <c r="U252" s="14"/>
     </row>
     <row r="253" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C253" s="38"/>
+      <c r="C253" s="45"/>
       <c r="D253" s="3">
         <v>1</v>
       </c>
@@ -6777,7 +6913,7 @@
       <c r="U253" s="14"/>
     </row>
     <row r="254" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C254" s="38"/>
+      <c r="C254" s="45"/>
       <c r="D254" s="3"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -6798,7 +6934,7 @@
       <c r="U254" s="15"/>
     </row>
     <row r="255" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C255" s="38"/>
+      <c r="C255" s="45"/>
       <c r="D255" s="3"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -6819,7 +6955,7 @@
       <c r="U255" s="15"/>
     </row>
     <row r="256" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C256" s="38"/>
+      <c r="C256" s="45"/>
       <c r="D256" s="3"/>
       <c r="E256" s="7"/>
       <c r="F256" s="8"/>
@@ -6840,7 +6976,7 @@
       <c r="U256" s="15"/>
     </row>
     <row r="257" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="39"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="16">
         <v>0</v>
       </c>
@@ -6878,7 +7014,156 @@
       <c r="U257" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="173">
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C244:C257"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="I244:J244"/>
+    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C212:C225"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="C228:C241"/>
+    <mergeCell ref="D228:D232"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:J228"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="C180:C193"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="C196:C209"/>
+    <mergeCell ref="D196:D200"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="C132:C145"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="C148:C161"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="C164:C177"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="C116:C129"/>
+    <mergeCell ref="D116:D120"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="C100:C113"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="C84:C97"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="C52:C65"/>
+    <mergeCell ref="C68:C81"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="G212:H212"/>
     <mergeCell ref="O180:P180"/>
@@ -6897,127 +7182,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I68:J68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C84:C97"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C36:C49"/>
-    <mergeCell ref="C52:C65"/>
-    <mergeCell ref="C68:C81"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:F68"/>
     <mergeCell ref="O36:P36"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="I36:J36"/>
     <mergeCell ref="K100:L100"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="D116:D120"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="C100:C113"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="C132:C145"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="C148:C161"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="C164:C177"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="C180:C193"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="C196:C209"/>
-    <mergeCell ref="D196:D200"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="C212:C225"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="C228:C241"/>
-    <mergeCell ref="D228:D232"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:J228"/>
-    <mergeCell ref="K228:L228"/>
-    <mergeCell ref="C244:C257"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="I244:J244"/>
-    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
